--- a/kimai-data/28/pay-period-28.xlsx
+++ b/kimai-data/28/pay-period-28.xlsx
@@ -633,13 +633,13 @@
         <f>F12 + G12</f>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I12" t="str">
-        <v>Short 45.00 hours</v>
+        <v/>
       </c>
     </row>
     <row r="13">
